--- a/TestDataGeneration/Skills.xlsx
+++ b/TestDataGeneration/Skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenda\Desktop\Team Projects\备份\main\TestDataGeneration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenda\Desktop\Team Projects\最新一次\main\TestDataGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F7A4E9-DC2A-4BFE-AD74-CEA07A8D8BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD517559-CE96-40BC-9E63-A92A1C7887D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1056" windowWidth="23064" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6828" yWindow="2652" windowWidth="23892" windowHeight="13608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Trade floor support role</t>
-  </si>
-  <si>
     <t>Equity Derivatives technology experience</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +189,10 @@
   </si>
   <si>
     <t>MIIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trade floor support role5.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +524,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -633,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -641,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -649,7 +650,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -657,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +674,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,7 +682,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,7 +690,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -697,7 +698,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,7 +706,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -713,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -721,7 +722,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,7 +730,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +738,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,7 +746,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -753,7 +754,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,7 +762,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -769,7 +770,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -777,7 +778,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -785,7 +786,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -793,7 +794,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -801,7 +802,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -809,7 +810,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -817,7 +818,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,7 +826,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -833,7 +834,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,7 +842,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -849,7 +850,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,7 +858,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,7 +866,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,7 +874,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +882,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
